--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.325378685217109</v>
+        <v>0.4442896666666667</v>
       </c>
       <c r="H2">
-        <v>0.325378685217109</v>
+        <v>1.332869</v>
       </c>
       <c r="I2">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="J2">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="N2">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="O2">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="P2">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="Q2">
-        <v>16.89908305212536</v>
+        <v>25.53711782276934</v>
       </c>
       <c r="R2">
-        <v>16.89908305212536</v>
+        <v>229.834060404924</v>
       </c>
       <c r="S2">
-        <v>0.1258676916577591</v>
+        <v>0.09434486050504542</v>
       </c>
       <c r="T2">
-        <v>0.1258676916577591</v>
+        <v>0.09434486050504544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.325378685217109</v>
+        <v>0.4442896666666667</v>
       </c>
       <c r="H3">
-        <v>0.325378685217109</v>
+        <v>1.332869</v>
       </c>
       <c r="I3">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="J3">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="N3">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="O3">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="P3">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="Q3">
-        <v>20.95396302888222</v>
+        <v>28.80793362360956</v>
       </c>
       <c r="R3">
-        <v>20.95396302888222</v>
+        <v>259.271402612486</v>
       </c>
       <c r="S3">
-        <v>0.1560692346083078</v>
+        <v>0.1064286305925543</v>
       </c>
       <c r="T3">
-        <v>0.1560692346083078</v>
+        <v>0.1064286305925543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.325378685217109</v>
+        <v>0.4442896666666667</v>
       </c>
       <c r="H4">
-        <v>0.325378685217109</v>
+        <v>1.332869</v>
       </c>
       <c r="I4">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="J4">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="N4">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="O4">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="P4">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="Q4">
-        <v>24.90294345340977</v>
+        <v>37.90482023291445</v>
       </c>
       <c r="R4">
-        <v>24.90294345340977</v>
+        <v>341.14338209623</v>
       </c>
       <c r="S4">
-        <v>0.1854820168819855</v>
+        <v>0.1400363581419749</v>
       </c>
       <c r="T4">
-        <v>0.1854820168819855</v>
+        <v>0.1400363581419749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.325378685217109</v>
+        <v>0.4442896666666667</v>
       </c>
       <c r="H5">
-        <v>0.325378685217109</v>
+        <v>1.332869</v>
       </c>
       <c r="I5">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="J5">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="N5">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="O5">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="P5">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="Q5">
-        <v>9.834675933440094</v>
+        <v>13.50805092320578</v>
       </c>
       <c r="R5">
-        <v>9.834675933440094</v>
+        <v>121.572458308852</v>
       </c>
       <c r="S5">
-        <v>0.07325059910801122</v>
+        <v>0.04990442495858356</v>
       </c>
       <c r="T5">
-        <v>0.07325059910801122</v>
+        <v>0.04990442495858358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.276428259297269</v>
+        <v>0.3321106666666667</v>
       </c>
       <c r="H6">
-        <v>0.276428259297269</v>
+        <v>0.996332</v>
       </c>
       <c r="I6">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="J6">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="N6">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="O6">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="P6">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="Q6">
-        <v>14.3567612878576</v>
+        <v>19.08923358154133</v>
       </c>
       <c r="R6">
-        <v>14.3567612878576</v>
+        <v>171.803102233872</v>
       </c>
       <c r="S6">
-        <v>0.1069319795287262</v>
+        <v>0.07052366253301182</v>
       </c>
       <c r="T6">
-        <v>0.1069319795287262</v>
+        <v>0.07052366253301182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.276428259297269</v>
+        <v>0.3321106666666667</v>
       </c>
       <c r="H7">
-        <v>0.276428259297269</v>
+        <v>0.996332</v>
       </c>
       <c r="I7">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="J7">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="N7">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="O7">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="P7">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="Q7">
-        <v>17.80161943179637</v>
+        <v>21.53419887706756</v>
       </c>
       <c r="R7">
-        <v>17.80161943179637</v>
+        <v>193.807789893608</v>
       </c>
       <c r="S7">
-        <v>0.1325899599841493</v>
+        <v>0.07955639329562079</v>
       </c>
       <c r="T7">
-        <v>0.1325899599841493</v>
+        <v>0.07955639329562081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.276428259297269</v>
+        <v>0.3321106666666667</v>
       </c>
       <c r="H8">
-        <v>0.276428259297269</v>
+        <v>0.996332</v>
       </c>
       <c r="I8">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="J8">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="N8">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="O8">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="P8">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="Q8">
-        <v>21.15650970072337</v>
+        <v>28.33420640160444</v>
       </c>
       <c r="R8">
-        <v>21.15650970072337</v>
+        <v>255.00785761444</v>
       </c>
       <c r="S8">
-        <v>0.1575778420255843</v>
+        <v>0.104678482866891</v>
       </c>
       <c r="T8">
-        <v>0.1575778420255843</v>
+        <v>0.104678482866891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3321106666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.996332</v>
+      </c>
+      <c r="I9">
+        <v>0.2920625614673305</v>
+      </c>
+      <c r="J9">
+        <v>0.2920625614673305</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.40370266666666</v>
+      </c>
+      <c r="N9">
+        <v>91.211108</v>
+      </c>
+      <c r="O9">
+        <v>0.1277261371138787</v>
+      </c>
+      <c r="P9">
+        <v>0.1277261371138788</v>
+      </c>
+      <c r="Q9">
+        <v>10.09739396176178</v>
+      </c>
+      <c r="R9">
+        <v>90.87654565585599</v>
+      </c>
+      <c r="S9">
+        <v>0.03730402277180689</v>
+      </c>
+      <c r="T9">
+        <v>0.0373040227718069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.05976866666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.179306</v>
+      </c>
+      <c r="I10">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="J10">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>57.478532</v>
+      </c>
+      <c r="N10">
+        <v>172.435596</v>
+      </c>
+      <c r="O10">
+        <v>0.2414676574042868</v>
+      </c>
+      <c r="P10">
+        <v>0.2414676574042868</v>
+      </c>
+      <c r="Q10">
+        <v>3.435415219597334</v>
+      </c>
+      <c r="R10">
+        <v>30.918736976376</v>
+      </c>
+      <c r="S10">
+        <v>0.01269186961188059</v>
+      </c>
+      <c r="T10">
+        <v>0.0126918696118806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.05976866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.179306</v>
+      </c>
+      <c r="I11">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="J11">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>64.84043133333334</v>
+      </c>
+      <c r="N11">
+        <v>194.521294</v>
+      </c>
+      <c r="O11">
+        <v>0.272395040623924</v>
+      </c>
+      <c r="P11">
+        <v>0.2723950406239241</v>
+      </c>
+      <c r="Q11">
+        <v>3.87542612688489</v>
+      </c>
+      <c r="R11">
+        <v>34.878835141964</v>
+      </c>
+      <c r="S11">
+        <v>0.01431745508150354</v>
+      </c>
+      <c r="T11">
+        <v>0.01431745508150354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.05976866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.179306</v>
+      </c>
+      <c r="I12">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="J12">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>85.31555666666667</v>
+      </c>
+      <c r="N12">
+        <v>255.94667</v>
+      </c>
+      <c r="O12">
+        <v>0.3584111648579104</v>
+      </c>
+      <c r="P12">
+        <v>0.3584111648579105</v>
+      </c>
+      <c r="Q12">
+        <v>5.099197067891112</v>
+      </c>
+      <c r="R12">
+        <v>45.89277361102</v>
+      </c>
+      <c r="S12">
+        <v>0.01883857996022486</v>
+      </c>
+      <c r="T12">
+        <v>0.01883857996022487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05976866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.179306</v>
+      </c>
+      <c r="I13">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="J13">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.40370266666666</v>
+      </c>
+      <c r="N13">
+        <v>91.211108</v>
+      </c>
+      <c r="O13">
+        <v>0.1277261371138787</v>
+      </c>
+      <c r="P13">
+        <v>0.1277261371138788</v>
+      </c>
+      <c r="Q13">
+        <v>1.817188770116444</v>
+      </c>
+      <c r="R13">
+        <v>16.354698931048</v>
+      </c>
+      <c r="S13">
+        <v>0.006713460078690243</v>
+      </c>
+      <c r="T13">
+        <v>0.006713460078690245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3009526666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.902858</v>
+      </c>
+      <c r="I14">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="J14">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>57.478532</v>
+      </c>
+      <c r="N14">
+        <v>172.435596</v>
+      </c>
+      <c r="O14">
+        <v>0.2414676574042868</v>
+      </c>
+      <c r="P14">
+        <v>0.2414676574042868</v>
+      </c>
+      <c r="Q14">
+        <v>17.29831748148533</v>
+      </c>
+      <c r="R14">
+        <v>155.684857333368</v>
+      </c>
+      <c r="S14">
+        <v>0.06390726475434894</v>
+      </c>
+      <c r="T14">
+        <v>0.06390726475434894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.276428259297269</v>
-      </c>
-      <c r="H9">
-        <v>0.276428259297269</v>
-      </c>
-      <c r="I9">
-        <v>0.4593304577439364</v>
-      </c>
-      <c r="J9">
-        <v>0.4593304577439364</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>30.2253232318457</v>
-      </c>
-      <c r="N9">
-        <v>30.2253232318457</v>
-      </c>
-      <c r="O9">
-        <v>0.1354812753134879</v>
-      </c>
-      <c r="P9">
-        <v>0.1354812753134879</v>
-      </c>
-      <c r="Q9">
-        <v>8.355133487676412</v>
-      </c>
-      <c r="R9">
-        <v>8.355133487676412</v>
-      </c>
-      <c r="S9">
-        <v>0.06223067620547667</v>
-      </c>
-      <c r="T9">
-        <v>0.06223067620547667</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3009526666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.902858</v>
+      </c>
+      <c r="I15">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="J15">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>64.84043133333334</v>
+      </c>
+      <c r="N15">
+        <v>194.521294</v>
+      </c>
+      <c r="O15">
+        <v>0.272395040623924</v>
+      </c>
+      <c r="P15">
+        <v>0.2723950406239241</v>
+      </c>
+      <c r="Q15">
+        <v>19.51390071758356</v>
+      </c>
+      <c r="R15">
+        <v>175.625106458252</v>
+      </c>
+      <c r="S15">
+        <v>0.07209256165424538</v>
+      </c>
+      <c r="T15">
+        <v>0.07209256165424538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3009526666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.902858</v>
+      </c>
+      <c r="I16">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="J16">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>85.31555666666667</v>
+      </c>
+      <c r="N16">
+        <v>255.94667</v>
+      </c>
+      <c r="O16">
+        <v>0.3584111648579104</v>
+      </c>
+      <c r="P16">
+        <v>0.3584111648579105</v>
+      </c>
+      <c r="Q16">
+        <v>25.67594428698445</v>
+      </c>
+      <c r="R16">
+        <v>231.08349858286</v>
+      </c>
+      <c r="S16">
+        <v>0.09485774388881967</v>
+      </c>
+      <c r="T16">
+        <v>0.09485774388881967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3009526666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.902858</v>
+      </c>
+      <c r="I17">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="J17">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.40370266666666</v>
+      </c>
+      <c r="N17">
+        <v>91.211108</v>
+      </c>
+      <c r="O17">
+        <v>0.1277261371138787</v>
+      </c>
+      <c r="P17">
+        <v>0.1277261371138788</v>
+      </c>
+      <c r="Q17">
+        <v>9.150075394073777</v>
+      </c>
+      <c r="R17">
+        <v>82.350678546664</v>
+      </c>
+      <c r="S17">
+        <v>0.03380422930479803</v>
+      </c>
+      <c r="T17">
+        <v>0.03380422930479803</v>
       </c>
     </row>
   </sheetData>
